--- a/chatbot.xlsx
+++ b/chatbot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phong Mai\Documents\sophie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518B5FA9-7456-4ABC-9ED8-E4ECC5529AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20B8C3C-353A-4700-BEF8-06F1B5A10290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I. ON-BOARDING" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>7. Tôi phải thông báo STK Ngân hàng cho ai?</t>
   </si>
   <si>
-    <t>*1. Nhân viên mới cần làm những gì*?\nChào mừng bạn gia nhập Telio :beers:\nBạn vui lòng xem Video hướng dẫn các thủ tục cần làm cho các Telier mới gia nhập tại link dưới đây (bấm vào mục 3. Hướng dẫn nhân viên mới các thủ tục cần làm tại Telio)\n&lt;https://telio.1office.vn/document-company/list?tab=all&amp;folder_id=268|Video hướng dẫn thủ tục cần làm cho Telio - er mới gia nhập&gt;</t>
-  </si>
-  <si>
     <t>1. Thủ tục nghỉ việc như thế nào?</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>Sophie mong bạn và gia đình BÌNH AN :four_leaf_clover:\nBạn hãy click vào đường link dưới đây để được hướng dẫn các thủ tục\n&lt;https://telio.1office.vn/document-company/list?folder_id=335|Quy định về chi trả lương và hỗ trợ cho CBNV bị ảnh hưởng bởi COVID19&gt;</t>
+  </si>
+  <si>
+    <t>*1. Nhân viên mới cần làm những gì*?\nChào mừng bạn gia nhập Telio :beers:\nBạn vui lòng xem Video hướng dẫn các thủ tục cần làm cho các Telier mới gia nhập tại link dưới đây (bấm vào mục 3. Hướng dẫn nhân viên mới các thủ tục cần làm tại Telio)\n&lt;https://telio.1office.vn/document-company/list?tab=all&amp;folder_id=268|Video hướng dẫn thủ tục cần làm cho Telier mới gia nhập&gt;</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75">
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8477F6C9-839E-45D7-B7BA-C1ECB8037641}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -820,26 +820,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -867,42 +867,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -931,26 +931,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -978,58 +978,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1057,26 +1057,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1104,50 +1104,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1175,34 +1175,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1230,74 +1230,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1325,26 +1325,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
